--- a/Global_M2/TVDataFeed/FinalData/M2_Data/New Zealand_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/New Zealand_M2.xlsx
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30407.45833333333</v>
+        <v>30407.41666666667</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
